--- a/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
+++ b/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,7 +703,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1002</v>
+        <v>3002</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1003</v>
+        <v>3003</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>

--- a/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
+++ b/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,18 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecipeSword1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeSword2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeSword3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Helmet1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,34 +242,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecipeHelmet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeHelmet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeHelmet3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레시피(상급자의 투구)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecipeAmor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeAmor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeArmor3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +259,38 @@
   </si>
   <si>
     <t>레시피(상급자의 갑옷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -881,7 +877,7 @@
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -916,7 +912,7 @@
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1083,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1118,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1188,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1223,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1258,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1293,7 +1289,7 @@
         <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1301,7 +1297,7 @@
         <v>1332</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1328,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1336,7 +1332,7 @@
         <v>1333</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1363,7 +1359,7 @@
         <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1433,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1468,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1538,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1573,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1643,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1678,7 +1674,7 @@
         <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
+++ b/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
@@ -222,18 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Helmet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발전카드(교역)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +279,18 @@
   </si>
   <si>
     <t>Recipe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helemet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helemet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helemet1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -877,7 +877,7 @@
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -912,7 +912,7 @@
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1219,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
         <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
         <v>1332</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1324,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>1333</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1359,7 +1359,7 @@
         <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1464,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1639,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1674,7 +1674,7 @@
         <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
+++ b/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
@@ -282,15 +282,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Helemet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helemet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Helemet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helemet3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helemet1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1639,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">

--- a/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
+++ b/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
@@ -282,15 +282,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Helemet3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helemet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helemet2</t>
+    <t>Helmet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +645,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">

--- a/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
+++ b/BlueTeam/TeamBlue/Assets/Terasurware/ItemTable.xlsx
@@ -34,263 +34,263 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeWood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeIron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeSheep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeBrick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철광석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적소굴 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expandable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(초보자의 검)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(초보자의 투구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(초보자의 갑옷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(중급자의 검)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(중급자의 투구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(중급자의 갑옷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(상급자의 검)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전카드(자원2배)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급자의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급자의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급자의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급자의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급자의 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레시피(HP포션) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpPotin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전카드(교역)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전카드(조합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(상급자의 투구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레시피(상급자의 갑옷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recipe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>나무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeWood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeIron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeSheep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeBrick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철광석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도적소굴 입장권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expandable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(초보자의 검)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(초보자의 투구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(초보자의 갑옷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(중급자의 검)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(중급자의 투구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(중급자의 갑옷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(상급자의 검)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전카드(자원2배)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자의 투구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자의 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급자의 투구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급자의 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급자의 검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급자의 투구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급자의 갑옷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">레시피(HP포션) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP포션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpPotin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전카드(교역)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전카드(조합)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(상급자의 투구)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피(상급자의 갑옷)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +645,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,25 +673,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -702,34 +702,34 @@
         <v>3000</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -737,10 +737,10 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -764,7 +764,7 @@
         <v>-1</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -772,10 +772,10 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -799,7 +799,7 @@
         <v>-1</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -807,10 +807,10 @@
         <v>3003</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -834,7 +834,7 @@
         <v>-1</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -842,11 +842,11 @@
         <v>1100</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
       <c r="D6">
         <v>-1</v>
       </c>
@@ -869,7 +869,7 @@
         <v>-1</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -877,10 +877,10 @@
         <v>1201</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -904,7 +904,7 @@
         <v>-1</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -912,10 +912,10 @@
         <v>1202</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -939,7 +939,7 @@
         <v>-1</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -947,10 +947,10 @@
         <v>1203</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -974,7 +974,7 @@
         <v>-1</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -982,10 +982,10 @@
         <v>1300</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1009,7 +1009,7 @@
         <v>-1</v>
       </c>
       <c r="K10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1017,10 +1017,10 @@
         <v>1301</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1052,10 +1052,10 @@
         <v>1311</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1087,10 +1087,10 @@
         <v>1312</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1122,10 +1122,10 @@
         <v>1313</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1157,10 +1157,10 @@
         <v>1321</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1192,10 +1192,10 @@
         <v>1322</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1219,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1227,10 +1227,10 @@
         <v>1323</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>-1</v>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1262,10 +1262,10 @@
         <v>1331</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -1289,7 +1289,7 @@
         <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1297,10 +1297,10 @@
         <v>1332</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1324,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1332,10 +1332,10 @@
         <v>1333</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -1359,7 +1359,7 @@
         <v>80</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1367,10 +1367,10 @@
         <v>2311</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1402,10 +1402,10 @@
         <v>2312</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1437,10 +1437,10 @@
         <v>2313</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -1464,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1472,10 +1472,10 @@
         <v>2321</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1507,10 +1507,10 @@
         <v>2322</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>300</v>
@@ -1534,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1542,10 +1542,10 @@
         <v>2323</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>600</v>
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1577,10 +1577,10 @@
         <v>2331</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         <v>80</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1612,10 +1612,10 @@
         <v>2332</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -1639,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1647,10 +1647,10 @@
         <v>2333</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>1000</v>
@@ -1674,7 +1674,7 @@
         <v>80</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
